--- a/data/case1/11/P2_3.xlsx
+++ b/data/case1/11/P2_3.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.28949607038090619</v>
+        <v>0.36992273206928417</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.009999998979893121</v>
+        <v>-0.0099999995878228276</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.008999998968965528</v>
+        <v>-0.008999999580128204</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.011999999740528011</v>
+        <v>-0.011999999886683099</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999989922401298</v>
+        <v>-0.0059999995858976973</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999989745413984</v>
+        <v>-0.0059999995727864075</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999998789792528</v>
+        <v>-0.019999999493855114</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999998785745987</v>
+        <v>-0.019999999489757947</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999989669146103</v>
+        <v>-0.0059999995630430902</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999989667218756</v>
+        <v>-0.0059999995595205746</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999989862901657</v>
+        <v>-0.0044999995681074267</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999989672285814</v>
+        <v>-0.0059999995590604982</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999989725953995</v>
+        <v>-0.0059999995564030684</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.048793721998395156</v>
+        <v>-0.011999999522600113</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999989717542945</v>
+        <v>0.019319510711529375</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999989684285104</v>
+        <v>-0.0059999995543140727</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999989640573403</v>
+        <v>-0.0059999995524568916</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999989238318534</v>
+        <v>-0.0089999995353817752</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0180445064266892</v>
+        <v>-0.0089999995923388809</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.03816219017680389</v>
+        <v>-0.049594746122311406</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999989689450999</v>
+        <v>-0.0089999995818290657</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999989678961612</v>
+        <v>-0.0089999995814160627</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.008999998959333233</v>
+        <v>-0.0089999995763969665</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999998510710235</v>
+        <v>-0.041999999387209108</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999998502143754</v>
+        <v>-0.041999999383934394</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.005999998974633769</v>
+        <v>-0.0059999995718271748</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999989734071946</v>
+        <v>-0.020060497647749642</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999989689796251</v>
+        <v>-0.0059999995663133632</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999998888597929</v>
+        <v>-0.011999999530596384</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999998784407058</v>
+        <v>-0.01999999948551201</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.021121879453124492</v>
+        <v>-0.014999999513269913</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999998776424</v>
+        <v>0.036646367374983946</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.022560476167489796</v>
+        <v>-0.021368926733398297</v>
       </c>
     </row>
   </sheetData>
